--- a/BreadDate.xlsx
+++ b/BreadDate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hb21a035/Documents/MakeBread/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hb21a035/Documents/MakeBread_Git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFF1AEA-6835-E54B-8901-6678006C0F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482FDF78-F279-E14E-BAD0-CBAD4FD30EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="600" windowWidth="28300" windowHeight="16160" xr2:uid="{A67705B6-AD14-BC44-BA97-BEDBD709D183}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{A67705B6-AD14-BC44-BA97-BEDBD709D183}"/>
   </bookViews>
   <sheets>
     <sheet name="Bread_date" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -88,6 +88,92 @@
       <t>ウミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>swe_02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シリンの蜜</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ミツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>swe_03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罪の粉</t>
+    <rPh sb="0" eb="1">
+      <t>ツミノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>swe_04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライムメロン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spi_02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炎の香辛料</t>
+    <rPh sb="0" eb="1">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウシンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>salt_02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルクバター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>047822B3790000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04A928AB790000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04D3F4AA790000</t>
+  </si>
+  <si>
+    <t>04D392B1790000</t>
+  </si>
+  <si>
+    <t>04B60BB0790000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04BCC9B2790000</t>
+  </si>
+  <si>
+    <t>041ED1B0790000</t>
+  </si>
+  <si>
+    <t>047373B3790000</t>
+  </si>
+  <si>
+    <t>049D4AB3790000</t>
   </si>
 </sst>
 </file>
@@ -451,18 +537,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00DF560-7FC8-4641-9DA6-1ECEF8377B32}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +559,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -483,8 +573,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -494,8 +587,11 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -505,8 +601,11 @@
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -515,6 +614,79 @@
       </c>
       <c r="C5">
         <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/BreadDate.xlsx
+++ b/BreadDate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hb21a035/Documents/MakeBread_Git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482FDF78-F279-E14E-BAD0-CBAD4FD30EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8063ED-55AF-8045-80F8-9ECDBE1AD9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{A67705B6-AD14-BC44-BA97-BEDBD709D183}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14280" windowHeight="16300" xr2:uid="{A67705B6-AD14-BC44-BA97-BEDBD709D183}"/>
   </bookViews>
   <sheets>
     <sheet name="Bread_date" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -174,6 +174,313 @@
   </si>
   <si>
     <t>049D4AB3790000</t>
+  </si>
+  <si>
+    <t>itemtext</t>
+  </si>
+  <si>
+    <t>breadtext</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>breadname</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピザパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレーパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミルクパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みつドーナツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メロンパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シオワッサン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バターフランス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サワータルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モグモグ牧場自慢の美味しい牛乳。パンに混ぜて焼くと甘味が増すのが特徴。</t>
+    <rPh sb="4" eb="6">
+      <t>ボクジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>j</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>オイシイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ギュウニュウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マゼ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>マスノガ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暑い砂漠の環境に耐えているうちに辛味が増していった唐辛子。味のアクセントにはぴったり。</t>
+    <rPh sb="0" eb="1">
+      <t>アツイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サバク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タエ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カラミ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マシテ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>トウガラセィ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とても酸味の強い果実。主に海の近くで栽培される。パンの印象をガラッと変える味わい。</t>
+    <rPh sb="3" eb="5">
+      <t>サンミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツヨイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カジテゥ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オモニ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サイバイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>インショウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古くから愛される基本的な調味料。塩。海の水を蒸発させると得られることから海の材料だと考えられている。</t>
+    <rPh sb="0" eb="1">
+      <t>フルク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アイサレ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>キホn</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>チョウミリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウハツス</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>エラレ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カンガエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暖かい地域に住むシリンバチから採取した蜂蜜。サラッとしていて、さっぱりとした甘味が特徴。お菓子によく用いられている。</t>
+    <rPh sb="0" eb="1">
+      <t>アタタカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サイシュス</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハチミテゥ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>モチイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甘い調味料と言ったらこれ。人を虜にする甘さなので罪の粉と呼ばれるようになった最高級のお砂糖。</t>
+    <rPh sb="0" eb="1">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アマサ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツミ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヨバレ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>サイコウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きく甘くするためにメロンをスライムで覆って育てたもの。食べるときはスライムを綺麗に取り除く技術が必要。</t>
+    <rPh sb="0" eb="1">
+      <t>オオキク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アマクソデ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オオッテ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ソダテ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タベ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キレイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>トリノゾイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ギジュテゥ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火山地域に生息している植物の実を細かく砕いたもの。スパイシーな香りと、程よい辛味で食欲をそそる。</t>
+    <rPh sb="0" eb="2">
+      <t>カザn</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チイキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイソク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショクブテゥ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミヲ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コマカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>クダイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ホドヨイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カラミ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルクスープで作られたバターで、モグモグ牧場の人気商品。パンの材料にもトッピングにもなる優れもの。甘味が抑えられ、塩味が増している。</t>
+    <rPh sb="7" eb="8">
+      <t>ツクラレ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>スグレ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>アマミ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>オサエ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>マシテイル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -537,19 +844,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00DF560-7FC8-4641-9DA6-1ECEF8377B32}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,8 +871,17 @@
       <c r="D1" t="s">
         <v>21</v>
       </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -576,8 +894,14 @@
       <c r="D2" t="s">
         <v>22</v>
       </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -590,8 +914,14 @@
       <c r="D3" t="s">
         <v>23</v>
       </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -604,8 +934,14 @@
       <c r="D4" t="s">
         <v>24</v>
       </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -618,8 +954,14 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -632,8 +974,14 @@
       <c r="D6" t="s">
         <v>26</v>
       </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -646,8 +994,14 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -660,8 +1014,14 @@
       <c r="D8" t="s">
         <v>28</v>
       </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -674,8 +1034,14 @@
       <c r="D9" t="s">
         <v>29</v>
       </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -687,6 +1053,12 @@
       </c>
       <c r="D10" t="s">
         <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
